--- a/data/vargas_gender_data.xlsx
+++ b/data/vargas_gender_data.xlsx
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O98" sqref="O98"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3283,7 +3283,7 @@
         <v>20</v>
       </c>
       <c r="U7" s="1">
-        <v>2.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="V7" s="12" t="s">
         <v>654</v>
